--- a/tests/bin/OpenRefine_exports/3_BR2_2018.xlsx
+++ b/tests/bin/OpenRefine_exports/3_BR2_2018.xlsx
@@ -48,12 +48,6 @@
     <t>Data_Type</t>
   </si>
   <si>
-    <t>R4_Month</t>
-  </si>
-  <si>
-    <t>R4_Count</t>
-  </si>
-  <si>
     <t>Business Plans Handbook v14 2008</t>
   </si>
   <si>
@@ -124,6 +118,12 @@
   </si>
   <si>
     <t>Book</t>
+  </si>
+  <si>
+    <t>Usage_Date</t>
+  </si>
+  <si>
+    <t>Usage_Count</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,45 +482,45 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1">
         <v>43160</v>
@@ -531,34 +531,34 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1">
         <v>43040</v>
@@ -569,34 +569,34 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K4" s="1">
         <v>42917</v>
@@ -607,34 +607,34 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5" s="1">
         <v>42979</v>
@@ -645,34 +645,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6" s="1">
         <v>43009</v>
@@ -683,34 +683,34 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K7" s="1">
         <v>42917</v>
@@ -721,34 +721,34 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="1">
         <v>43132</v>
@@ -759,34 +759,34 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" s="1">
         <v>42917</v>
@@ -797,34 +797,34 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K10" s="1">
         <v>43009</v>
@@ -835,34 +835,34 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K11" s="1">
         <v>43040</v>
@@ -873,34 +873,34 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K12" s="1">
         <v>43070</v>
@@ -911,34 +911,34 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K13" s="1">
         <v>43160</v>
@@ -949,34 +949,34 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K14" s="1">
         <v>43191</v>
@@ -987,34 +987,34 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K15" s="1">
         <v>42948</v>
@@ -1025,34 +1025,34 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K16" s="1">
         <v>43009</v>
@@ -1063,34 +1063,34 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K17" s="1">
         <v>43040</v>
@@ -1101,34 +1101,34 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K18" s="1">
         <v>43132</v>
@@ -1139,34 +1139,34 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K19" s="1">
         <v>43160</v>
